--- a/src/test/resources/ApiDatadriverTesting.xlsx
+++ b/src/test/resources/ApiDatadriverTesting.xlsx
@@ -3,23 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A26146C5-C3CA-4444-9A8B-BCA097241C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SuryadeviAngappan\git\Automation_CJPFlow\Project_01\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98B5B5E-B3F1-440D-BB4A-826DE3CB071B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="hidden" xWindow="2304" yWindow="2304" windowWidth="23304" windowHeight="13224" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="RequestData_1" sheetId="2" r:id="rId2"/>
-    <sheet name="project_01" sheetId="10" r:id="rId3"/>
-    <sheet name="RequestData_2" sheetId="5" r:id="rId4"/>
-    <sheet name="RequestData_3" sheetId="8" r:id="rId5"/>
-    <sheet name="RequestData_4" sheetId="9" r:id="rId6"/>
-    <sheet name="Log" sheetId="4" r:id="rId7"/>
-    <sheet name="PickupServicesStatus" sheetId="6" r:id="rId8"/>
-    <sheet name="PostSanctionStatus" sheetId="7" r:id="rId9"/>
+    <sheet name="RequestData_2" sheetId="5" r:id="rId3"/>
+    <sheet name="RequestData_3" sheetId="8" r:id="rId4"/>
+    <sheet name="Log" sheetId="4" r:id="rId5"/>
+    <sheet name="PickupServicesStatus" sheetId="6" r:id="rId6"/>
+    <sheet name="PostSanctionStatus" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4474" uniqueCount="1612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4464" uniqueCount="1639">
   <si>
     <t>Sparsh</t>
   </si>
@@ -4837,21 +4839,18 @@
     <t>Partner_DB_Validation</t>
   </si>
   <si>
-    <t>653f9519yfb84</t>
-  </si>
-  <si>
     <t>654085dansqcu</t>
   </si>
   <si>
+    <t>Nykaa_BNPL_TC_01_LeadTest</t>
+  </si>
+  <si>
     <t>LA_amount</t>
   </si>
   <si>
     <t>LA_partner_code</t>
   </si>
   <si>
-    <t>8879659896</t>
-  </si>
-  <si>
     <t>Bhau</t>
   </si>
   <si>
@@ -4861,28 +4860,140 @@
     <t>5fe429a0sj16d</t>
   </si>
   <si>
-    <t xml:space="preserve"> MHJ Show</t>
-  </si>
-  <si>
-    <t>431515</t>
-  </si>
-  <si>
-    <t>Nykaa_BNPL_TC_01_Lead_Creation</t>
-  </si>
-  <si>
-    <t>Nykaa_BNPL_TC_01_LeadTest</t>
-  </si>
-  <si>
-    <t>̵</t>
+    <t> MHJ Show</t>
+  </si>
+  <si>
+    <t>m_code</t>
+  </si>
+  <si>
+    <t>6548a09cwj3wu</t>
+  </si>
+  <si>
+    <t>6548a0e0w99q6</t>
+  </si>
+  <si>
+    <t>DISCREPANT</t>
+  </si>
+  <si>
+    <t>BANK_CYCLE_UPDATED</t>
+  </si>
+  <si>
+    <t>Upload and Parse Additional Bank Statement as per the current Banking cycle (Start Date - End Date)</t>
+  </si>
+  <si>
+    <t>m_message</t>
+  </si>
+  <si>
+    <t>Update_Statement_TC_01</t>
+  </si>
+  <si>
+    <t>get_Summary_Data_TC_01</t>
+  </si>
+  <si>
+    <t>summary_id</t>
+  </si>
+  <si>
+    <t>653b83e8yi41p</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> update_account_TC_01</t>
+  </si>
+  <si>
+    <t>accountNumber</t>
+  </si>
+  <si>
+    <t>ERRORED</t>
+  </si>
+  <si>
+    <t>get_Banking_Period_TC_01</t>
+  </si>
+  <si>
+    <t>656826f115j01</t>
+  </si>
+  <si>
+    <t>Get_AA_Data_TC_01</t>
+  </si>
+  <si>
+    <t>session_id</t>
+  </si>
+  <si>
+    <t>6f30c58a-06e6-4220-856c-3311ebbb30b0</t>
+  </si>
+  <si>
+    <t>BIF_TC_11Test</t>
+  </si>
+  <si>
+    <t>co_applicant_guarantor_res</t>
+  </si>
+  <si>
+    <t>BIF_TC_12Test</t>
+  </si>
+  <si>
+    <t>post_sanction</t>
+  </si>
+  <si>
+    <t>fetch_list_of_partner_cjp_link_not_created_TC_01</t>
+  </si>
+  <si>
+    <t>cjp_link_disabled</t>
+  </si>
+  <si>
+    <t>CJP_link_associated_with_selected_partner_and_uploaded_log_TC_01</t>
+  </si>
+  <si>
+    <t>logo_url</t>
+  </si>
+  <si>
+    <t>00aee70bc3840</t>
+  </si>
+  <si>
+    <t>https://cdn.flexiloans.com/partner-stage/c4b58229ffe142d58dd1084e8a149fc4 (3)_1702558443413.png</t>
+  </si>
+  <si>
+    <t>Session data pulled successfully</t>
+  </si>
+  <si>
+    <t>65aa51873gtyn</t>
+  </si>
+  <si>
+    <t>9879423195</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26">
+  <fonts count="30">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -5008,12 +5119,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF17C6A3"/>
-      <name val="Menlo"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -5032,14 +5137,20 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF1290C3"/>
       <name val="Menlo"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF1290C3"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Menlo"/>
       <family val="2"/>
     </font>
@@ -5114,91 +5225,108 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="14" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -5507,8 +5635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D137"/>
   <sheetViews>
-    <sheetView topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="B141" sqref="B141"/>
+    <sheetView topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="B135" sqref="B135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -6597,7 +6725,7 @@
       <c r="A134" t="s">
         <v>1578</v>
       </c>
-      <c r="B134" s="49" t="s">
+      <c r="B134" s="46" t="s">
         <v>1582</v>
       </c>
     </row>
@@ -6605,6 +6733,9 @@
       <c r="A135" t="s">
         <v>1579</v>
       </c>
+      <c r="B135" t="s">
+        <v>1636</v>
+      </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
@@ -6617,7 +6748,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6625,10 +6756,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AV181"/>
+  <dimension ref="A1:AV179"/>
   <sheetViews>
-    <sheetView topLeftCell="A162" workbookViewId="0">
-      <selection activeCell="A180" sqref="A180:XFD181"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E144" sqref="E144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -7286,7 +7417,6 @@
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
     </row>
-    <row r="16" spans="1:18" ht="13.95" customHeight="1"/>
     <row r="17" spans="1:17">
       <c r="A17" s="3" t="s">
         <v>40</v>
@@ -10475,7 +10605,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:4">
       <c r="A177" s="21" t="s">
         <v>1412</v>
       </c>
@@ -10483,72 +10613,16 @@
         <v>338</v>
       </c>
     </row>
-    <row r="178" spans="1:9">
+    <row r="178" spans="1:4">
       <c r="B178" s="2" t="s">
         <v>1413</v>
       </c>
     </row>
-    <row r="179" spans="1:9">
+    <row r="179" spans="1:4">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
-    </row>
-    <row r="180" spans="1:9" s="1" customFormat="1">
-      <c r="A180" s="3" t="s">
-        <v>1610</v>
-      </c>
-      <c r="B180" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C180" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="D180" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="E180" s="3" t="s">
-        <v>1601</v>
-      </c>
-      <c r="F180" s="3" t="s">
-        <v>1602</v>
-      </c>
-      <c r="G180" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="H180" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="I180" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" s="1" customFormat="1">
-      <c r="A181" s="2"/>
-      <c r="B181" s="2" t="s">
-        <v>1604</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>1605</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>1603</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="F181" s="2" t="s">
-        <v>1606</v>
-      </c>
-      <c r="G181" s="2" t="s">
-        <v>1607</v>
-      </c>
-      <c r="H181" s="2" t="s">
-        <v>1608</v>
-      </c>
-      <c r="I181" s="2" t="s">
-        <v>231</v>
-      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -10562,82 +10636,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8790F3E6-66C5-554A-801B-0157F0377D18}">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
-  <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1">
-      <c r="A1" s="3" t="s">
-        <v>1610</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>1601</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>1602</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
-        <v>1604</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1605</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>1603</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>1606</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>1607</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>1608</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:CG291"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="I14" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -11037,7 +11040,7 @@
         <v>37</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>303</v>
+        <v>1638</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>38</v>
@@ -11519,7 +11522,7 @@
       </c>
       <c r="E31" s="21"/>
     </row>
-    <row r="32" spans="1:18" ht="15">
+    <row r="32" spans="1:18">
       <c r="B32" t="s">
         <v>409</v>
       </c>
@@ -11530,7 +11533,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="15">
+    <row r="33" spans="1:18">
       <c r="A33" s="21" t="s">
         <v>411</v>
       </c>
@@ -11545,7 +11548,7 @@
       </c>
       <c r="E33" s="21"/>
     </row>
-    <row r="34" spans="1:18" ht="15">
+    <row r="34" spans="1:18">
       <c r="B34" t="s">
         <v>412</v>
       </c>
@@ -11556,7 +11559,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="15">
+    <row r="35" spans="1:18">
       <c r="A35" s="3" t="s">
         <v>40</v>
       </c>
@@ -11610,7 +11613,7 @@
       </c>
       <c r="R35" s="21"/>
     </row>
-    <row r="36" spans="1:18" ht="15">
+    <row r="36" spans="1:18">
       <c r="B36" s="2" t="s">
         <v>0</v>
       </c>
@@ -11657,7 +11660,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="15">
+    <row r="37" spans="1:18">
       <c r="A37" s="21" t="s">
         <v>413</v>
       </c>
@@ -11670,7 +11673,7 @@
       <c r="D37" s="21"/>
       <c r="E37" s="21"/>
     </row>
-    <row r="38" spans="1:18" ht="15">
+    <row r="38" spans="1:18">
       <c r="B38" s="2" t="s">
         <v>202</v>
       </c>
@@ -11678,7 +11681,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="15">
+    <row r="39" spans="1:18">
       <c r="A39" s="21" t="s">
         <v>414</v>
       </c>
@@ -11691,7 +11694,7 @@
       <c r="D39" s="21"/>
       <c r="E39" s="21"/>
     </row>
-    <row r="40" spans="1:18" ht="15">
+    <row r="40" spans="1:18">
       <c r="B40" s="2" t="s">
         <v>71</v>
       </c>
@@ -11699,7 +11702,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="15">
+    <row r="41" spans="1:18">
       <c r="A41" s="21" t="s">
         <v>585</v>
       </c>
@@ -11710,14 +11713,14 @@
       <c r="D41" s="3"/>
       <c r="E41" s="21"/>
     </row>
-    <row r="42" spans="1:18" ht="15">
+    <row r="42" spans="1:18">
       <c r="B42" t="s">
         <v>410</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
     </row>
-    <row r="43" spans="1:18" ht="15">
+    <row r="43" spans="1:18">
       <c r="A43" s="21" t="s">
         <v>586</v>
       </c>
@@ -11729,7 +11732,7 @@
       </c>
       <c r="D43" s="21"/>
     </row>
-    <row r="44" spans="1:18" ht="15">
+    <row r="44" spans="1:18">
       <c r="B44" s="2" t="s">
         <v>202</v>
       </c>
@@ -11737,7 +11740,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="15">
+    <row r="45" spans="1:18">
       <c r="A45" s="21" t="s">
         <v>587</v>
       </c>
@@ -11747,14 +11750,14 @@
       <c r="C45" s="21"/>
       <c r="D45" s="2"/>
     </row>
-    <row r="46" spans="1:18" ht="15">
+    <row r="46" spans="1:18">
       <c r="B46" s="22" t="s">
         <v>589</v>
       </c>
       <c r="C46" s="22"/>
       <c r="D46" s="2"/>
     </row>
-    <row r="47" spans="1:18" ht="15">
+    <row r="47" spans="1:18">
       <c r="A47" s="21" t="s">
         <v>590</v>
       </c>
@@ -11764,14 +11767,14 @@
       <c r="C47" s="21"/>
       <c r="D47" s="2"/>
     </row>
-    <row r="48" spans="1:18" ht="15">
+    <row r="48" spans="1:18">
       <c r="B48" s="22" t="s">
         <v>591</v>
       </c>
       <c r="C48" s="22"/>
       <c r="D48" s="2"/>
     </row>
-    <row r="49" spans="1:4" ht="15">
+    <row r="49" spans="1:4">
       <c r="A49" s="21" t="s">
         <v>592</v>
       </c>
@@ -11781,14 +11784,14 @@
       <c r="C49" s="21"/>
       <c r="D49" s="2"/>
     </row>
-    <row r="50" spans="1:4" ht="15">
+    <row r="50" spans="1:4">
       <c r="B50" s="22" t="s">
         <v>691</v>
       </c>
       <c r="C50" s="22"/>
       <c r="D50" s="2"/>
     </row>
-    <row r="51" spans="1:4" ht="15">
+    <row r="51" spans="1:4">
       <c r="A51" s="21" t="s">
         <v>603</v>
       </c>
@@ -11798,14 +11801,14 @@
       <c r="C51" s="33"/>
       <c r="D51" s="2"/>
     </row>
-    <row r="52" spans="1:4" ht="15">
+    <row r="52" spans="1:4">
       <c r="B52" s="22" t="s">
         <v>692</v>
       </c>
       <c r="C52" s="22"/>
       <c r="D52" s="2"/>
     </row>
-    <row r="53" spans="1:4" ht="15">
+    <row r="53" spans="1:4">
       <c r="A53" s="21" t="s">
         <v>605</v>
       </c>
@@ -11815,14 +11818,14 @@
       <c r="C53" s="33"/>
       <c r="D53" s="2"/>
     </row>
-    <row r="54" spans="1:4" ht="15">
+    <row r="54" spans="1:4">
       <c r="B54" s="22" t="s">
         <v>694</v>
       </c>
       <c r="C54" s="22"/>
       <c r="D54" s="2"/>
     </row>
-    <row r="55" spans="1:4" ht="15">
+    <row r="55" spans="1:4">
       <c r="A55" s="21" t="s">
         <v>607</v>
       </c>
@@ -11832,14 +11835,14 @@
       <c r="C55" s="33"/>
       <c r="D55" s="2"/>
     </row>
-    <row r="56" spans="1:4" ht="15">
+    <row r="56" spans="1:4">
       <c r="B56" s="22" t="s">
         <v>695</v>
       </c>
       <c r="C56" s="22"/>
       <c r="D56" s="2"/>
     </row>
-    <row r="57" spans="1:4" ht="15">
+    <row r="57" spans="1:4">
       <c r="A57" s="21" t="s">
         <v>609</v>
       </c>
@@ -11849,14 +11852,14 @@
       <c r="C57" s="33"/>
       <c r="D57" s="2"/>
     </row>
-    <row r="58" spans="1:4" ht="15">
+    <row r="58" spans="1:4">
       <c r="B58" s="22" t="s">
         <v>695</v>
       </c>
       <c r="C58" s="22"/>
       <c r="D58" s="2"/>
     </row>
-    <row r="59" spans="1:4" ht="15">
+    <row r="59" spans="1:4">
       <c r="A59" s="21" t="s">
         <v>415</v>
       </c>
@@ -11868,7 +11871,7 @@
       </c>
       <c r="D59" s="21"/>
     </row>
-    <row r="60" spans="1:4" ht="15">
+    <row r="60" spans="1:4">
       <c r="B60" t="s">
         <v>353</v>
       </c>
@@ -11877,7 +11880,7 @@
       </c>
       <c r="D60" s="22"/>
     </row>
-    <row r="61" spans="1:4" ht="15">
+    <row r="61" spans="1:4">
       <c r="A61" s="21" t="s">
         <v>417</v>
       </c>
@@ -11888,7 +11891,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15">
+    <row r="62" spans="1:4">
       <c r="B62" t="s">
         <v>353</v>
       </c>
@@ -11896,7 +11899,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15">
+    <row r="63" spans="1:4">
       <c r="A63" s="21" t="s">
         <v>418</v>
       </c>
@@ -11907,7 +11910,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15">
+    <row r="64" spans="1:4">
       <c r="B64" t="s">
         <v>353</v>
       </c>
@@ -11915,7 +11918,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="65" spans="1:67" ht="15">
+    <row r="65" spans="1:67">
       <c r="A65" s="21" t="s">
         <v>419</v>
       </c>
@@ -11926,7 +11929,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="66" spans="1:67" ht="15">
+    <row r="66" spans="1:67">
       <c r="B66" t="s">
         <v>353</v>
       </c>
@@ -11934,7 +11937,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="67" spans="1:67" ht="15">
+    <row r="67" spans="1:67">
       <c r="A67" s="21" t="s">
         <v>420</v>
       </c>
@@ -11945,7 +11948,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="68" spans="1:67" ht="15">
+    <row r="68" spans="1:67">
       <c r="B68" t="s">
         <v>353</v>
       </c>
@@ -11953,7 +11956,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="69" spans="1:67" ht="15">
+    <row r="69" spans="1:67">
       <c r="A69" s="21" t="s">
         <v>421</v>
       </c>
@@ -11965,7 +11968,7 @@
       </c>
       <c r="D69" s="21"/>
     </row>
-    <row r="70" spans="1:67" ht="15">
+    <row r="70" spans="1:67">
       <c r="B70" t="s">
         <v>353</v>
       </c>
@@ -11974,7 +11977,7 @@
       </c>
       <c r="D70" s="22"/>
     </row>
-    <row r="71" spans="1:67" ht="15">
+    <row r="71" spans="1:67">
       <c r="A71" s="21" t="s">
         <v>422</v>
       </c>
@@ -11986,7 +11989,7 @@
       </c>
       <c r="D71" s="21"/>
     </row>
-    <row r="72" spans="1:67" ht="15">
+    <row r="72" spans="1:67">
       <c r="B72" t="s">
         <v>353</v>
       </c>
@@ -11995,7 +11998,7 @@
       </c>
       <c r="D72" s="22"/>
     </row>
-    <row r="73" spans="1:67" ht="15">
+    <row r="73" spans="1:67">
       <c r="A73" s="21" t="s">
         <v>423</v>
       </c>
@@ -12007,7 +12010,7 @@
       </c>
       <c r="D73" s="21"/>
     </row>
-    <row r="74" spans="1:67" ht="15">
+    <row r="74" spans="1:67">
       <c r="B74" t="s">
         <v>353</v>
       </c>
@@ -12016,7 +12019,7 @@
       </c>
       <c r="D74" s="22"/>
     </row>
-    <row r="75" spans="1:67" ht="15">
+    <row r="75" spans="1:67">
       <c r="A75" s="21" t="s">
         <v>424</v>
       </c>
@@ -12170,7 +12173,7 @@
       <c r="AY75" s="21"/>
       <c r="AZ75" s="21"/>
     </row>
-    <row r="76" spans="1:67" ht="15">
+    <row r="76" spans="1:67">
       <c r="B76" t="s">
         <v>355</v>
       </c>
@@ -12322,7 +12325,7 @@
       <c r="BG76" s="27"/>
       <c r="BO76" s="27"/>
     </row>
-    <row r="77" spans="1:67" ht="15">
+    <row r="77" spans="1:67">
       <c r="A77" s="21" t="s">
         <v>496</v>
       </c>
@@ -12387,7 +12390,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="78" spans="1:67" ht="15">
+    <row r="78" spans="1:67">
       <c r="B78" t="s">
         <v>497</v>
       </c>
@@ -12451,7 +12454,7 @@
       <c r="AH78" s="30"/>
       <c r="AT78" s="27"/>
     </row>
-    <row r="79" spans="1:67" ht="15">
+    <row r="79" spans="1:67">
       <c r="A79" s="21" t="s">
         <v>504</v>
       </c>
@@ -12605,7 +12608,7 @@
       <c r="AY79" s="21"/>
       <c r="AZ79" s="21"/>
     </row>
-    <row r="80" spans="1:67" ht="15">
+    <row r="80" spans="1:67">
       <c r="B80" t="s">
         <v>355</v>
       </c>
@@ -12755,7 +12758,7 @@
       </c>
       <c r="AY80" s="22"/>
     </row>
-    <row r="81" spans="1:52" ht="15">
+    <row r="81" spans="1:52">
       <c r="A81" s="21" t="s">
         <v>505</v>
       </c>
@@ -12820,7 +12823,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="82" spans="1:52" ht="15">
+    <row r="82" spans="1:52">
       <c r="B82" t="s">
         <v>497</v>
       </c>
@@ -12884,7 +12887,7 @@
       <c r="AH82" s="30"/>
       <c r="AT82" s="27"/>
     </row>
-    <row r="83" spans="1:52" ht="15">
+    <row r="83" spans="1:52">
       <c r="A83" s="21" t="s">
         <v>506</v>
       </c>
@@ -13038,7 +13041,7 @@
       <c r="AY83" s="21"/>
       <c r="AZ83" s="21"/>
     </row>
-    <row r="84" spans="1:52" ht="15">
+    <row r="84" spans="1:52">
       <c r="B84" t="s">
         <v>355</v>
       </c>
@@ -13188,7 +13191,7 @@
       </c>
       <c r="AY84" s="22"/>
     </row>
-    <row r="85" spans="1:52" ht="15">
+    <row r="85" spans="1:52">
       <c r="A85" s="21" t="s">
         <v>507</v>
       </c>
@@ -13253,7 +13256,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="86" spans="1:52" ht="15">
+    <row r="86" spans="1:52">
       <c r="B86" t="s">
         <v>497</v>
       </c>
@@ -13317,7 +13320,7 @@
       <c r="AH86" s="30"/>
       <c r="AT86" s="27"/>
     </row>
-    <row r="87" spans="1:52" ht="15">
+    <row r="87" spans="1:52">
       <c r="A87" s="21" t="s">
         <v>508</v>
       </c>
@@ -13344,7 +13347,7 @@
       </c>
       <c r="I87" s="21"/>
     </row>
-    <row r="88" spans="1:52" ht="15">
+    <row r="88" spans="1:52">
       <c r="B88" s="22" t="s">
         <v>509</v>
       </c>
@@ -13367,7 +13370,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="89" spans="1:52" ht="15">
+    <row r="89" spans="1:52">
       <c r="A89" s="21" t="s">
         <v>511</v>
       </c>
@@ -13394,7 +13397,7 @@
       </c>
       <c r="I89" s="21"/>
     </row>
-    <row r="90" spans="1:52" ht="15">
+    <row r="90" spans="1:52">
       <c r="B90" s="22" t="s">
         <v>509</v>
       </c>
@@ -13417,7 +13420,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="91" spans="1:52" ht="15">
+    <row r="91" spans="1:52">
       <c r="A91" s="21" t="s">
         <v>512</v>
       </c>
@@ -13571,7 +13574,7 @@
       <c r="AY91" s="21"/>
       <c r="AZ91" s="21"/>
     </row>
-    <row r="92" spans="1:52" ht="15">
+    <row r="92" spans="1:52">
       <c r="B92" t="s">
         <v>355</v>
       </c>
@@ -13721,7 +13724,7 @@
       </c>
       <c r="AY92" s="22"/>
     </row>
-    <row r="93" spans="1:52" ht="15">
+    <row r="93" spans="1:52">
       <c r="A93" s="21" t="s">
         <v>513</v>
       </c>
@@ -13787,7 +13790,7 @@
       </c>
       <c r="V93" s="21"/>
     </row>
-    <row r="94" spans="1:52" ht="15">
+    <row r="94" spans="1:52">
       <c r="B94" t="s">
         <v>497</v>
       </c>
@@ -13852,7 +13855,7 @@
       <c r="AI94" s="30"/>
       <c r="AU94" s="27"/>
     </row>
-    <row r="95" spans="1:52" ht="15">
+    <row r="95" spans="1:52">
       <c r="A95" s="21" t="s">
         <v>719</v>
       </c>
@@ -13864,7 +13867,7 @@
       </c>
       <c r="D95" s="21"/>
     </row>
-    <row r="97" spans="1:7" ht="15">
+    <row r="97" spans="1:7">
       <c r="A97" s="21" t="s">
         <v>721</v>
       </c>
@@ -13873,13 +13876,13 @@
       </c>
       <c r="C97" s="21"/>
     </row>
-    <row r="98" spans="1:7" ht="15">
+    <row r="98" spans="1:7">
       <c r="B98" s="22" t="s">
         <v>722</v>
       </c>
       <c r="C98" s="22"/>
     </row>
-    <row r="99" spans="1:7" ht="15">
+    <row r="99" spans="1:7">
       <c r="A99" s="21" t="s">
         <v>723</v>
       </c>
@@ -13888,13 +13891,13 @@
       </c>
       <c r="C99" s="21"/>
     </row>
-    <row r="100" spans="1:7" ht="15">
+    <row r="100" spans="1:7">
       <c r="B100" s="13" t="s">
         <v>724</v>
       </c>
       <c r="C100" s="13"/>
     </row>
-    <row r="101" spans="1:7" ht="15">
+    <row r="101" spans="1:7">
       <c r="A101" s="21" t="s">
         <v>761</v>
       </c>
@@ -13903,12 +13906,12 @@
       </c>
       <c r="C101" s="21"/>
     </row>
-    <row r="102" spans="1:7" ht="15">
+    <row r="102" spans="1:7">
       <c r="B102">
         <v>4162316667</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="15">
+    <row r="103" spans="1:7">
       <c r="A103" s="21" t="s">
         <v>765</v>
       </c>
@@ -13929,7 +13932,7 @@
       </c>
       <c r="G103" s="21"/>
     </row>
-    <row r="104" spans="1:7" ht="15">
+    <row r="104" spans="1:7">
       <c r="B104" s="13" t="s">
         <v>774</v>
       </c>
@@ -13946,7 +13949,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="15">
+    <row r="105" spans="1:7">
       <c r="A105" s="21" t="s">
         <v>767</v>
       </c>
@@ -13955,12 +13958,12 @@
       </c>
       <c r="C105" s="21"/>
     </row>
-    <row r="106" spans="1:7" ht="15">
+    <row r="106" spans="1:7">
       <c r="B106" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="15">
+    <row r="107" spans="1:7">
       <c r="A107" s="21" t="s">
         <v>780</v>
       </c>
@@ -13969,13 +13972,13 @@
       </c>
       <c r="C107" s="21"/>
     </row>
-    <row r="108" spans="1:7" ht="15">
+    <row r="108" spans="1:7">
       <c r="B108" s="22" t="s">
         <v>782</v>
       </c>
       <c r="C108" s="22"/>
     </row>
-    <row r="109" spans="1:7" ht="15">
+    <row r="109" spans="1:7">
       <c r="A109" s="21" t="s">
         <v>809</v>
       </c>
@@ -13993,7 +13996,7 @@
       </c>
       <c r="F109" s="21"/>
     </row>
-    <row r="110" spans="1:7" ht="15">
+    <row r="110" spans="1:7">
       <c r="B110" s="22" t="s">
         <v>1526</v>
       </c>
@@ -14007,7 +14010,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="15">
+    <row r="111" spans="1:7">
       <c r="A111" s="21" t="s">
         <v>816</v>
       </c>
@@ -14028,7 +14031,7 @@
       </c>
       <c r="G111" s="21"/>
     </row>
-    <row r="112" spans="1:7" ht="15">
+    <row r="112" spans="1:7">
       <c r="B112" s="22" t="s">
         <v>876</v>
       </c>
@@ -14045,7 +14048,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="15">
+    <row r="113" spans="1:11">
       <c r="A113" s="21" t="s">
         <v>823</v>
       </c>
@@ -14063,7 +14066,7 @@
       </c>
       <c r="F113" s="21"/>
     </row>
-    <row r="114" spans="1:11" ht="15">
+    <row r="114" spans="1:11">
       <c r="B114" s="22" t="s">
         <v>876</v>
       </c>
@@ -14077,7 +14080,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="15">
+    <row r="115" spans="1:11">
       <c r="A115" s="21" t="s">
         <v>825</v>
       </c>
@@ -14098,7 +14101,7 @@
       </c>
       <c r="G115" s="21"/>
     </row>
-    <row r="116" spans="1:11" ht="15">
+    <row r="116" spans="1:11">
       <c r="B116" s="22" t="s">
         <v>876</v>
       </c>
@@ -14115,7 +14118,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="15">
+    <row r="117" spans="1:11">
       <c r="A117" s="21" t="s">
         <v>878</v>
       </c>
@@ -14127,7 +14130,7 @@
       </c>
       <c r="D117" s="21"/>
     </row>
-    <row r="118" spans="1:11" ht="15">
+    <row r="118" spans="1:11">
       <c r="B118" t="s">
         <v>60</v>
       </c>
@@ -14135,7 +14138,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="15">
+    <row r="119" spans="1:11">
       <c r="A119" s="21" t="s">
         <v>901</v>
       </c>
@@ -14145,12 +14148,12 @@
       <c r="C119" s="21"/>
       <c r="D119" s="21"/>
     </row>
-    <row r="120" spans="1:11" ht="15">
+    <row r="120" spans="1:11">
       <c r="B120" s="13" t="s">
         <v>1529</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="15">
+    <row r="121" spans="1:11">
       <c r="A121" s="21" t="s">
         <v>881</v>
       </c>
@@ -14162,7 +14165,7 @@
       </c>
       <c r="D121" s="21"/>
     </row>
-    <row r="122" spans="1:11" ht="15">
+    <row r="122" spans="1:11">
       <c r="B122" t="s">
         <v>1035</v>
       </c>
@@ -14170,7 +14173,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="15">
+    <row r="123" spans="1:11">
       <c r="A123" s="21" t="s">
         <v>882</v>
       </c>
@@ -14182,7 +14185,7 @@
       </c>
       <c r="D123" s="21"/>
     </row>
-    <row r="124" spans="1:11" ht="15">
+    <row r="124" spans="1:11">
       <c r="B124" t="s">
         <v>1035</v>
       </c>
@@ -14190,7 +14193,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="15">
+    <row r="125" spans="1:11">
       <c r="A125" s="21" t="s">
         <v>883</v>
       </c>
@@ -14202,7 +14205,7 @@
       </c>
       <c r="D125" s="21"/>
     </row>
-    <row r="126" spans="1:11" ht="15">
+    <row r="126" spans="1:11">
       <c r="B126" t="s">
         <v>60</v>
       </c>
@@ -14210,7 +14213,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="15">
+    <row r="127" spans="1:11">
       <c r="A127" s="21" t="s">
         <v>914</v>
       </c>
@@ -14243,7 +14246,7 @@
       </c>
       <c r="K127" s="21"/>
     </row>
-    <row r="128" spans="1:11" ht="15">
+    <row r="128" spans="1:11">
       <c r="B128" t="s">
         <v>920</v>
       </c>
@@ -14272,7 +14275,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:11" ht="15">
+    <row r="129" spans="1:11">
       <c r="A129" s="21" t="s">
         <v>978</v>
       </c>
@@ -14305,7 +14308,7 @@
       </c>
       <c r="K129" s="21"/>
     </row>
-    <row r="130" spans="1:11" ht="15">
+    <row r="130" spans="1:11">
       <c r="B130" t="s">
         <v>920</v>
       </c>
@@ -14334,7 +14337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:11" ht="15">
+    <row r="131" spans="1:11">
       <c r="A131" s="21" t="s">
         <v>926</v>
       </c>
@@ -14343,12 +14346,12 @@
       </c>
       <c r="C131" s="21"/>
     </row>
-    <row r="132" spans="1:11" ht="15">
+    <row r="132" spans="1:11">
       <c r="B132" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="15">
+    <row r="133" spans="1:11">
       <c r="A133" s="21" t="s">
         <v>936</v>
       </c>
@@ -14360,7 +14363,7 @@
       </c>
       <c r="D133" s="21"/>
     </row>
-    <row r="134" spans="1:11" ht="15">
+    <row r="134" spans="1:11">
       <c r="B134" t="s">
         <v>939</v>
       </c>
@@ -14368,7 +14371,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="135" spans="1:11" ht="15">
+    <row r="135" spans="1:11">
       <c r="A135" s="21" t="s">
         <v>941</v>
       </c>
@@ -14380,7 +14383,7 @@
       </c>
       <c r="D135" s="21"/>
     </row>
-    <row r="136" spans="1:11" ht="15">
+    <row r="136" spans="1:11">
       <c r="B136" t="s">
         <v>939</v>
       </c>
@@ -14388,7 +14391,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="137" spans="1:11" ht="15">
+    <row r="137" spans="1:11">
       <c r="A137" s="34" t="s">
         <v>943</v>
       </c>
@@ -14403,7 +14406,7 @@
       </c>
       <c r="E137" s="34"/>
     </row>
-    <row r="138" spans="1:11" ht="15">
+    <row r="138" spans="1:11">
       <c r="A138" s="2"/>
       <c r="B138" s="27" t="s">
         <v>946</v>
@@ -14416,7 +14419,7 @@
       </c>
       <c r="E138" s="37"/>
     </row>
-    <row r="139" spans="1:11" ht="15">
+    <row r="139" spans="1:11">
       <c r="A139" s="34" t="s">
         <v>948</v>
       </c>
@@ -14431,7 +14434,7 @@
       </c>
       <c r="E139" s="34"/>
     </row>
-    <row r="140" spans="1:11" ht="15">
+    <row r="140" spans="1:11">
       <c r="A140" s="2"/>
       <c r="B140" s="38" t="s">
         <v>950</v>
@@ -14444,7 +14447,7 @@
       </c>
       <c r="E140" s="37"/>
     </row>
-    <row r="141" spans="1:11" ht="15">
+    <row r="141" spans="1:11">
       <c r="A141" s="3" t="s">
         <v>951</v>
       </c>
@@ -14455,7 +14458,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="142" spans="1:11" ht="15">
+    <row r="142" spans="1:11">
       <c r="A142" s="2"/>
       <c r="B142" s="2" t="s">
         <v>953</v>
@@ -14464,7 +14467,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="143" spans="1:11" ht="15">
+    <row r="143" spans="1:11">
       <c r="A143" s="21" t="s">
         <v>1036</v>
       </c>
@@ -14472,12 +14475,12 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="144" spans="1:11" ht="15">
+    <row r="144" spans="1:11">
       <c r="B144" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="15">
+    <row r="145" spans="1:6">
       <c r="A145" s="21" t="s">
         <v>1018</v>
       </c>
@@ -14485,12 +14488,12 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="15">
+    <row r="146" spans="1:6">
       <c r="B146" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="15">
+    <row r="147" spans="1:6">
       <c r="A147" s="21" t="s">
         <v>1019</v>
       </c>
@@ -14501,7 +14504,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="15">
+    <row r="148" spans="1:6">
       <c r="B148" t="s">
         <v>1040</v>
       </c>
@@ -14509,7 +14512,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="15">
+    <row r="149" spans="1:6">
       <c r="A149" s="21" t="s">
         <v>1055</v>
       </c>
@@ -14517,12 +14520,12 @@
         <v>637</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="15">
+    <row r="150" spans="1:6">
       <c r="B150" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="15">
+    <row r="151" spans="1:6">
       <c r="A151" s="21" t="s">
         <v>1056</v>
       </c>
@@ -14530,12 +14533,12 @@
         <v>637</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="15">
+    <row r="152" spans="1:6">
       <c r="B152" t="s">
         <v>1057</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="15">
+    <row r="153" spans="1:6">
       <c r="A153" s="21" t="s">
         <v>1058</v>
       </c>
@@ -14543,12 +14546,12 @@
         <v>347</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="15">
+    <row r="154" spans="1:6">
       <c r="B154" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="15">
+    <row r="155" spans="1:6">
       <c r="A155" s="21" t="s">
         <v>1161</v>
       </c>
@@ -14568,7 +14571,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="15">
+    <row r="156" spans="1:6">
       <c r="B156" t="s">
         <v>1164</v>
       </c>
@@ -14585,7 +14588,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="15">
+    <row r="157" spans="1:6">
       <c r="A157" s="21" t="s">
         <v>1168</v>
       </c>
@@ -14605,7 +14608,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="15">
+    <row r="158" spans="1:6">
       <c r="B158" t="s">
         <v>1164</v>
       </c>
@@ -14622,7 +14625,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="15">
+    <row r="159" spans="1:6">
       <c r="A159" s="21" t="s">
         <v>1170</v>
       </c>
@@ -14639,7 +14642,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="15">
+    <row r="160" spans="1:6">
       <c r="B160" t="s">
         <v>1171</v>
       </c>
@@ -14653,7 +14656,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="15">
+    <row r="161" spans="1:5">
       <c r="A161" s="21" t="s">
         <v>1155</v>
       </c>
@@ -14670,7 +14673,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="15">
+    <row r="162" spans="1:5">
       <c r="B162" t="s">
         <v>1164</v>
       </c>
@@ -14684,7 +14687,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="15">
+    <row r="163" spans="1:5">
       <c r="A163" s="21" t="s">
         <v>1139</v>
       </c>
@@ -14701,7 +14704,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="15">
+    <row r="164" spans="1:5">
       <c r="B164" t="s">
         <v>1164</v>
       </c>
@@ -14715,7 +14718,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="15">
+    <row r="165" spans="1:5">
       <c r="A165" s="21" t="s">
         <v>1174</v>
       </c>
@@ -14732,7 +14735,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="15">
+    <row r="166" spans="1:5">
       <c r="B166" t="s">
         <v>1164</v>
       </c>
@@ -14746,7 +14749,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="15">
+    <row r="167" spans="1:5">
       <c r="A167" s="11" t="s">
         <v>1200</v>
       </c>
@@ -14757,7 +14760,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="15">
+    <row r="168" spans="1:5">
       <c r="A168" s="2"/>
       <c r="B168" s="2" t="s">
         <v>1177</v>
@@ -14766,7 +14769,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="15">
+    <row r="169" spans="1:5">
       <c r="A169" s="11" t="s">
         <v>1201</v>
       </c>
@@ -14777,7 +14780,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="15">
+    <row r="170" spans="1:5">
       <c r="A170" s="2"/>
       <c r="B170" s="2" t="s">
         <v>1177</v>
@@ -14786,7 +14789,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="15">
+    <row r="171" spans="1:5">
       <c r="A171" s="11" t="s">
         <v>1202</v>
       </c>
@@ -14797,7 +14800,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="15">
+    <row r="172" spans="1:5">
       <c r="A172" s="2"/>
       <c r="B172" s="2" t="s">
         <v>1177</v>
@@ -14806,7 +14809,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="15">
+    <row r="173" spans="1:5">
       <c r="A173" s="11" t="s">
         <v>1203</v>
       </c>
@@ -14817,7 +14820,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="15">
+    <row r="174" spans="1:5">
       <c r="A174" s="2"/>
       <c r="B174" s="2" t="s">
         <v>1177</v>
@@ -14826,7 +14829,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="15">
+    <row r="175" spans="1:5">
       <c r="A175" s="11" t="s">
         <v>1216</v>
       </c>
@@ -14837,7 +14840,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="15">
+    <row r="176" spans="1:5">
       <c r="A176" s="2"/>
       <c r="B176" s="2" t="s">
         <v>1177</v>
@@ -14846,7 +14849,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="177" spans="1:13" ht="15">
+    <row r="177" spans="1:13">
       <c r="A177" s="11" t="s">
         <v>1217</v>
       </c>
@@ -14857,7 +14860,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="178" spans="1:13" ht="15">
+    <row r="178" spans="1:13">
       <c r="A178" s="2"/>
       <c r="B178" s="2" t="s">
         <v>1177</v>
@@ -14866,7 +14869,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="179" spans="1:13" ht="15">
+    <row r="179" spans="1:13">
       <c r="A179" s="11" t="s">
         <v>1218</v>
       </c>
@@ -14877,7 +14880,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="180" spans="1:13" ht="15">
+    <row r="180" spans="1:13">
       <c r="A180" s="2"/>
       <c r="B180" s="2" t="s">
         <v>1177</v>
@@ -14886,7 +14889,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="181" spans="1:13" ht="15">
+    <row r="181" spans="1:13">
       <c r="A181" s="21" t="s">
         <v>1245</v>
       </c>
@@ -14906,7 +14909,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="182" spans="1:13" ht="15">
+    <row r="182" spans="1:13">
       <c r="A182" s="2"/>
       <c r="B182" s="2" t="s">
         <v>1251</v>
@@ -14924,7 +14927,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="183" spans="1:13" ht="15">
+    <row r="183" spans="1:13">
       <c r="A183" s="11" t="s">
         <v>1244</v>
       </c>
@@ -14938,7 +14941,7 @@
       <c r="E183" s="2"/>
       <c r="F183" s="22"/>
     </row>
-    <row r="184" spans="1:13" ht="15">
+    <row r="184" spans="1:13">
       <c r="A184" s="2"/>
       <c r="B184" s="2" t="s">
         <v>1247</v>
@@ -14950,7 +14953,7 @@
       <c r="E184" s="2"/>
       <c r="F184" s="22"/>
     </row>
-    <row r="185" spans="1:13" ht="15">
+    <row r="185" spans="1:13">
       <c r="A185" t="s">
         <v>1290</v>
       </c>
@@ -14991,7 +14994,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="186" spans="1:13" ht="15">
+    <row r="186" spans="1:13">
       <c r="B186" s="2" t="s">
         <v>1303</v>
       </c>
@@ -15029,7 +15032,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="187" spans="1:13" ht="15">
+    <row r="187" spans="1:13">
       <c r="A187" t="s">
         <v>1313</v>
       </c>
@@ -15070,7 +15073,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="188" spans="1:13" ht="15">
+    <row r="188" spans="1:13">
       <c r="B188" s="2" t="s">
         <v>1303</v>
       </c>
@@ -15108,7 +15111,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="189" spans="1:13" ht="15">
+    <row r="189" spans="1:13">
       <c r="A189" t="s">
         <v>1314</v>
       </c>
@@ -15149,7 +15152,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="190" spans="1:13" ht="15">
+    <row r="190" spans="1:13">
       <c r="B190" s="2" t="s">
         <v>1303</v>
       </c>
@@ -15187,7 +15190,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="191" spans="1:13" ht="15">
+    <row r="191" spans="1:13">
       <c r="A191" t="s">
         <v>1315</v>
       </c>
@@ -15228,7 +15231,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="192" spans="1:13" ht="15">
+    <row r="192" spans="1:13">
       <c r="B192" s="2" t="s">
         <v>1303</v>
       </c>
@@ -15266,7 +15269,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="15">
+    <row r="193" spans="1:3">
       <c r="A193" t="s">
         <v>1416</v>
       </c>
@@ -15274,12 +15277,12 @@
         <v>338</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="15">
+    <row r="194" spans="1:3">
       <c r="B194" s="2" t="s">
         <v>1417</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="15">
+    <row r="195" spans="1:3">
       <c r="A195" t="s">
         <v>1418</v>
       </c>
@@ -15287,12 +15290,12 @@
         <v>338</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="15">
+    <row r="196" spans="1:3">
       <c r="B196" s="2" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="15">
+    <row r="197" spans="1:3">
       <c r="A197" t="s">
         <v>1420</v>
       </c>
@@ -15300,12 +15303,12 @@
         <v>338</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="15">
+    <row r="198" spans="1:3">
       <c r="B198" s="2" t="s">
         <v>1421</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="15">
+    <row r="199" spans="1:3">
       <c r="A199" t="s">
         <v>1422</v>
       </c>
@@ -15313,12 +15316,12 @@
         <v>338</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="15">
+    <row r="200" spans="1:3">
       <c r="B200" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="15">
+    <row r="201" spans="1:3">
       <c r="A201" t="s">
         <v>1423</v>
       </c>
@@ -15326,12 +15329,12 @@
         <v>338</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="15">
+    <row r="202" spans="1:3">
       <c r="B202" t="s">
         <v>1421</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="15">
+    <row r="203" spans="1:3">
       <c r="A203" t="s">
         <v>1424</v>
       </c>
@@ -15339,12 +15342,12 @@
         <v>338</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="15">
+    <row r="204" spans="1:3">
       <c r="B204" t="s">
         <v>1527</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="15">
+    <row r="205" spans="1:3">
       <c r="A205" t="s">
         <v>1426</v>
       </c>
@@ -15352,7 +15355,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="15">
+    <row r="206" spans="1:3">
       <c r="B206" t="s">
         <v>1427</v>
       </c>
@@ -15361,7 +15364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="15">
+    <row r="207" spans="1:3">
       <c r="A207" t="s">
         <v>1428</v>
       </c>
@@ -15369,12 +15372,12 @@
         <v>338</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="15">
+    <row r="208" spans="1:3">
       <c r="B208" t="s">
         <v>1429</v>
       </c>
     </row>
-    <row r="209" spans="1:85" ht="15">
+    <row r="209" spans="1:85">
       <c r="A209" s="3" t="s">
         <v>1437</v>
       </c>
@@ -15388,7 +15391,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="210" spans="1:85" ht="15">
+    <row r="210" spans="1:85">
       <c r="A210" s="2"/>
       <c r="B210" s="2" t="s">
         <v>1410</v>
@@ -15400,7 +15403,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="211" spans="1:85" ht="15">
+    <row r="211" spans="1:85">
       <c r="A211" s="3" t="s">
         <v>1441</v>
       </c>
@@ -15414,7 +15417,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="212" spans="1:85" ht="15">
+    <row r="212" spans="1:85">
       <c r="B212" t="s">
         <v>1425</v>
       </c>
@@ -15425,7 +15428,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="213" spans="1:85" ht="15">
+    <row r="213" spans="1:85">
       <c r="A213" s="21" t="s">
         <v>1322</v>
       </c>
@@ -15433,12 +15436,12 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="214" spans="1:85" ht="15">
+    <row r="214" spans="1:85">
       <c r="B214" t="s">
         <v>1321</v>
       </c>
     </row>
-    <row r="215" spans="1:85" s="13" customFormat="1" ht="15">
+    <row r="215" spans="1:85" s="13" customFormat="1">
       <c r="A215" s="21" t="s">
         <v>1339</v>
       </c>
@@ -15452,7 +15455,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="216" spans="1:85" ht="15">
+    <row r="216" spans="1:85">
       <c r="B216" t="s">
         <v>811</v>
       </c>
@@ -15490,7 +15493,7 @@
       <c r="BG216" s="27"/>
       <c r="BO216" s="27"/>
     </row>
-    <row r="217" spans="1:85" s="13" customFormat="1" ht="15">
+    <row r="217" spans="1:85" s="13" customFormat="1">
       <c r="A217" s="21" t="s">
         <v>1340</v>
       </c>
@@ -15507,7 +15510,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="218" spans="1:85" ht="15">
+    <row r="218" spans="1:85">
       <c r="B218" t="s">
         <v>1447</v>
       </c>
@@ -15530,7 +15533,7 @@
       <c r="AH218" s="30"/>
       <c r="AT218" s="27"/>
     </row>
-    <row r="219" spans="1:85" ht="15">
+    <row r="219" spans="1:85">
       <c r="A219" s="21" t="s">
         <v>1342</v>
       </c>
@@ -15538,12 +15541,12 @@
         <v>352</v>
       </c>
     </row>
-    <row r="220" spans="1:85" ht="15">
+    <row r="220" spans="1:85">
       <c r="B220" t="s">
         <v>1486</v>
       </c>
     </row>
-    <row r="221" spans="1:85" ht="15">
+    <row r="221" spans="1:85">
       <c r="A221" s="21" t="s">
         <v>1481</v>
       </c>
@@ -15650,7 +15653,7 @@
       <c r="CF221" s="3"/>
       <c r="CG221" s="3"/>
     </row>
-    <row r="222" spans="1:85" ht="15">
+    <row r="222" spans="1:85">
       <c r="B222" s="2" t="s">
         <v>672</v>
       </c>
@@ -15711,7 +15714,7 @@
       <c r="CC222" s="27"/>
       <c r="CG222" s="22"/>
     </row>
-    <row r="223" spans="1:85" ht="15">
+    <row r="223" spans="1:85">
       <c r="A223" s="21" t="s">
         <v>1480</v>
       </c>
@@ -15754,7 +15757,7 @@
       <c r="T223" s="3"/>
       <c r="U223" s="3"/>
     </row>
-    <row r="224" spans="1:85" ht="15">
+    <row r="224" spans="1:85">
       <c r="B224" s="2" t="s">
         <v>672</v>
       </c>
@@ -15792,7 +15795,7 @@
       <c r="S224" s="41"/>
       <c r="T224" s="41"/>
     </row>
-    <row r="225" spans="1:22" ht="15">
+    <row r="225" spans="1:22">
       <c r="A225" s="21" t="s">
         <v>1488</v>
       </c>
@@ -15825,7 +15828,7 @@
       </c>
       <c r="K225" s="3"/>
     </row>
-    <row r="226" spans="1:22" ht="15">
+    <row r="226" spans="1:22">
       <c r="B226" s="2" t="s">
         <v>672</v>
       </c>
@@ -15855,7 +15858,7 @@
       </c>
       <c r="K226" s="2"/>
     </row>
-    <row r="227" spans="1:22" ht="15">
+    <row r="227" spans="1:22">
       <c r="A227" s="21" t="s">
         <v>1509</v>
       </c>
@@ -15869,7 +15872,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="228" spans="1:22" ht="15">
+    <row r="228" spans="1:22">
       <c r="B228">
         <v>4372</v>
       </c>
@@ -15880,7 +15883,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="229" spans="1:22" ht="15">
+    <row r="229" spans="1:22">
       <c r="A229" s="21" t="s">
         <v>1510</v>
       </c>
@@ -15891,7 +15894,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="230" spans="1:22" ht="15">
+    <row r="230" spans="1:22">
       <c r="B230" s="22" t="s">
         <v>1524</v>
       </c>
@@ -15899,7 +15902,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="232" spans="1:22" s="21" customFormat="1" ht="16.05">
+    <row r="232" spans="1:22" s="21" customFormat="1" ht="15.6">
       <c r="A232" s="45" t="s">
         <v>1542</v>
       </c>
@@ -16029,7 +16032,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="234" spans="1:22" s="21" customFormat="1" ht="16.05">
+    <row r="234" spans="1:22" s="21" customFormat="1" ht="15.6">
       <c r="A234" s="45" t="s">
         <v>1575</v>
       </c>
@@ -16043,7 +16046,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="235" spans="1:22" ht="15">
+    <row r="235" spans="1:22">
       <c r="B235" t="s">
         <v>631</v>
       </c>
@@ -16054,8 +16057,8 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="236" spans="1:22" ht="16.05">
-      <c r="A236" s="63" t="s">
+    <row r="236" spans="1:22" ht="15.6">
+      <c r="A236" s="60" t="s">
         <v>1598</v>
       </c>
       <c r="B236" s="11" t="s">
@@ -16064,308 +16067,308 @@
       <c r="C236" s="11"/>
       <c r="D236" s="11"/>
     </row>
-    <row r="237" spans="1:22" ht="16.05">
-      <c r="B237" s="50" t="s">
-        <v>1599</v>
+    <row r="237" spans="1:22" ht="15.6">
+      <c r="B237" s="49" t="s">
+        <v>1622</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
     </row>
-    <row r="238" spans="1:22" ht="15">
+    <row r="238" spans="1:22">
       <c r="A238" s="21"/>
       <c r="B238" s="11"/>
       <c r="C238" s="11"/>
       <c r="D238" s="11"/>
     </row>
-    <row r="239" spans="1:22" ht="16.05">
-      <c r="B239" s="50"/>
+    <row r="239" spans="1:22" ht="15.6">
+      <c r="B239" s="49"/>
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
     </row>
-    <row r="240" spans="1:22" ht="15">
+    <row r="240" spans="1:22">
       <c r="A240" s="21"/>
       <c r="B240" s="11"/>
       <c r="C240" s="11"/>
       <c r="D240" s="11"/>
     </row>
-    <row r="241" spans="1:4" ht="16.05">
-      <c r="B241" s="50"/>
+    <row r="241" spans="1:4" ht="15.6">
+      <c r="B241" s="49"/>
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
     </row>
-    <row r="242" spans="1:4" ht="15">
+    <row r="242" spans="1:4">
       <c r="A242" s="21"/>
       <c r="B242" s="11"/>
       <c r="C242" s="11"/>
       <c r="D242" s="11"/>
     </row>
-    <row r="243" spans="1:4" ht="16.05">
-      <c r="B243" s="50"/>
+    <row r="243" spans="1:4" ht="15.6">
+      <c r="B243" s="49"/>
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
     </row>
-    <row r="244" spans="1:4" ht="15">
+    <row r="244" spans="1:4">
       <c r="A244" s="21"/>
       <c r="B244" s="11"/>
       <c r="C244" s="11"/>
       <c r="D244" s="11"/>
     </row>
-    <row r="245" spans="1:4" ht="16.05">
-      <c r="B245" s="50"/>
+    <row r="245" spans="1:4" ht="15.6">
+      <c r="B245" s="49"/>
       <c r="C245" s="2"/>
       <c r="D245" s="2"/>
     </row>
-    <row r="246" spans="1:4" ht="15">
+    <row r="246" spans="1:4">
       <c r="A246" s="21"/>
       <c r="B246" s="11"/>
       <c r="C246" s="11"/>
       <c r="D246" s="11"/>
     </row>
-    <row r="247" spans="1:4" ht="16.05">
-      <c r="B247" s="50"/>
+    <row r="247" spans="1:4" ht="15.6">
+      <c r="B247" s="49"/>
       <c r="C247" s="2"/>
       <c r="D247" s="2"/>
     </row>
-    <row r="248" spans="1:4" ht="15">
+    <row r="248" spans="1:4">
       <c r="A248" s="21"/>
       <c r="B248" s="11"/>
       <c r="C248" s="11"/>
       <c r="D248" s="11"/>
     </row>
-    <row r="249" spans="1:4" ht="16.05">
-      <c r="B249" s="50"/>
+    <row r="249" spans="1:4" ht="15.6">
+      <c r="B249" s="49"/>
       <c r="C249" s="2"/>
       <c r="D249" s="2"/>
     </row>
-    <row r="250" spans="1:4" ht="15">
+    <row r="250" spans="1:4">
       <c r="A250" s="21"/>
       <c r="B250" s="11"/>
       <c r="C250" s="11"/>
       <c r="D250" s="11"/>
     </row>
-    <row r="251" spans="1:4" ht="16.05">
-      <c r="B251" s="50"/>
+    <row r="251" spans="1:4" ht="15.6">
+      <c r="B251" s="49"/>
       <c r="C251" s="2"/>
       <c r="D251" s="2"/>
     </row>
-    <row r="252" spans="1:4" ht="15">
+    <row r="252" spans="1:4">
       <c r="A252" s="21"/>
       <c r="B252" s="11"/>
       <c r="C252" s="11"/>
       <c r="D252" s="11"/>
     </row>
-    <row r="253" spans="1:4" ht="16.05">
-      <c r="B253" s="50"/>
-      <c r="C253" s="51"/>
+    <row r="253" spans="1:4" ht="15.6">
+      <c r="B253" s="49"/>
+      <c r="C253" s="50"/>
       <c r="D253" s="2"/>
     </row>
-    <row r="254" spans="1:4" ht="15">
+    <row r="254" spans="1:4">
       <c r="A254" s="21"/>
       <c r="B254" s="11"/>
       <c r="C254" s="11"/>
       <c r="D254" s="11"/>
     </row>
-    <row r="255" spans="1:4" ht="16.05">
-      <c r="B255" s="50"/>
-      <c r="C255" s="51"/>
+    <row r="255" spans="1:4" ht="15.6">
+      <c r="B255" s="49"/>
+      <c r="C255" s="50"/>
       <c r="D255" s="2"/>
     </row>
-    <row r="256" spans="1:4" ht="15">
+    <row r="256" spans="1:4">
       <c r="A256" s="21"/>
       <c r="B256" s="11"/>
       <c r="C256" s="11"/>
       <c r="D256" s="11"/>
     </row>
-    <row r="257" spans="1:4" ht="16.05">
-      <c r="B257" s="50"/>
-      <c r="C257" s="51"/>
+    <row r="257" spans="1:4" ht="15.6">
+      <c r="B257" s="49"/>
+      <c r="C257" s="50"/>
       <c r="D257" s="2"/>
     </row>
-    <row r="258" spans="1:4" ht="15">
+    <row r="258" spans="1:4">
       <c r="A258" s="21"/>
       <c r="B258" s="11"/>
       <c r="C258" s="11"/>
       <c r="D258" s="11"/>
     </row>
-    <row r="259" spans="1:4" ht="16.05">
-      <c r="B259" s="50"/>
-      <c r="C259" s="51"/>
+    <row r="259" spans="1:4" ht="15.6">
+      <c r="B259" s="49"/>
+      <c r="C259" s="50"/>
       <c r="D259" s="2"/>
     </row>
-    <row r="260" spans="1:4" ht="15">
+    <row r="260" spans="1:4">
       <c r="A260" s="21"/>
       <c r="B260" s="11"/>
       <c r="C260" s="11"/>
       <c r="D260" s="11"/>
     </row>
-    <row r="261" spans="1:4" ht="16.05">
-      <c r="B261" s="50"/>
-      <c r="C261" s="51"/>
+    <row r="261" spans="1:4" ht="15.6">
+      <c r="B261" s="49"/>
+      <c r="C261" s="50"/>
       <c r="D261" s="2"/>
     </row>
-    <row r="262" spans="1:4" ht="15">
+    <row r="262" spans="1:4">
       <c r="A262" s="21"/>
       <c r="B262" s="11"/>
       <c r="C262" s="11"/>
       <c r="D262" s="11"/>
     </row>
-    <row r="263" spans="1:4" ht="16.05">
-      <c r="B263" s="50"/>
-      <c r="C263" s="51"/>
+    <row r="263" spans="1:4" ht="15.6">
+      <c r="B263" s="49"/>
+      <c r="C263" s="50"/>
       <c r="D263" s="2"/>
     </row>
-    <row r="264" spans="1:4" ht="15">
+    <row r="264" spans="1:4">
       <c r="A264" s="21"/>
       <c r="B264" s="11"/>
       <c r="C264" s="11"/>
       <c r="D264" s="11"/>
     </row>
-    <row r="265" spans="1:4" ht="16.05">
-      <c r="B265" s="50"/>
-      <c r="C265" s="51"/>
+    <row r="265" spans="1:4" ht="15.6">
+      <c r="B265" s="49"/>
+      <c r="C265" s="50"/>
       <c r="D265" s="2"/>
     </row>
-    <row r="266" spans="1:4" ht="15">
+    <row r="266" spans="1:4">
       <c r="A266" s="21"/>
       <c r="B266" s="11"/>
       <c r="C266" s="11"/>
       <c r="D266" s="11"/>
     </row>
-    <row r="267" spans="1:4" ht="16.05">
-      <c r="B267" s="50"/>
-      <c r="C267" s="51"/>
+    <row r="267" spans="1:4" ht="15.6">
+      <c r="B267" s="49"/>
+      <c r="C267" s="50"/>
       <c r="D267" s="2"/>
     </row>
-    <row r="268" spans="1:4" ht="15">
+    <row r="268" spans="1:4">
       <c r="A268" s="21"/>
       <c r="B268" s="11"/>
       <c r="C268" s="11"/>
       <c r="D268" s="11"/>
     </row>
-    <row r="269" spans="1:4" ht="16.05">
-      <c r="B269" s="50"/>
-      <c r="C269" s="51"/>
+    <row r="269" spans="1:4" ht="15.6">
+      <c r="B269" s="49"/>
+      <c r="C269" s="50"/>
       <c r="D269" s="2"/>
     </row>
-    <row r="270" spans="1:4" ht="15">
+    <row r="270" spans="1:4">
       <c r="A270" s="21"/>
       <c r="B270" s="11"/>
       <c r="C270" s="11"/>
       <c r="D270" s="11"/>
     </row>
-    <row r="271" spans="1:4" ht="15">
-      <c r="B271" s="51"/>
-      <c r="C271" s="51"/>
+    <row r="271" spans="1:4">
+      <c r="B271" s="50"/>
+      <c r="C271" s="50"/>
       <c r="D271" s="2"/>
     </row>
-    <row r="272" spans="1:4" ht="15">
+    <row r="272" spans="1:4">
       <c r="A272" s="21"/>
       <c r="B272" s="11"/>
       <c r="C272" s="11"/>
       <c r="D272" s="11"/>
     </row>
-    <row r="273" spans="1:4" ht="15">
-      <c r="B273" s="51"/>
-      <c r="C273" s="51"/>
+    <row r="273" spans="1:4">
+      <c r="B273" s="50"/>
+      <c r="C273" s="50"/>
       <c r="D273" s="2"/>
     </row>
-    <row r="274" spans="1:4" ht="15">
+    <row r="274" spans="1:4">
       <c r="A274" s="21"/>
       <c r="B274" s="11"/>
       <c r="C274" s="11"/>
       <c r="D274" s="11"/>
     </row>
-    <row r="275" spans="1:4" ht="16.05">
-      <c r="B275" s="50"/>
-      <c r="C275" s="51"/>
+    <row r="275" spans="1:4" ht="15.6">
+      <c r="B275" s="49"/>
+      <c r="C275" s="50"/>
       <c r="D275" s="2"/>
     </row>
-    <row r="276" spans="1:4" ht="15">
+    <row r="276" spans="1:4">
       <c r="A276" s="21"/>
       <c r="B276" s="11"/>
       <c r="C276" s="11"/>
       <c r="D276" s="11"/>
     </row>
-    <row r="277" spans="1:4" ht="16.05">
-      <c r="B277" s="50"/>
-      <c r="C277" s="51"/>
+    <row r="277" spans="1:4" ht="15.6">
+      <c r="B277" s="49"/>
+      <c r="C277" s="50"/>
       <c r="D277" s="2"/>
     </row>
-    <row r="278" spans="1:4" ht="15">
+    <row r="278" spans="1:4">
       <c r="A278" s="21"/>
       <c r="B278" s="11"/>
       <c r="C278" s="11"/>
       <c r="D278" s="11"/>
     </row>
-    <row r="279" spans="1:4" ht="16.05">
-      <c r="B279" s="50"/>
-      <c r="C279" s="51"/>
+    <row r="279" spans="1:4" ht="15.6">
+      <c r="B279" s="49"/>
+      <c r="C279" s="50"/>
       <c r="D279" s="2"/>
     </row>
-    <row r="280" spans="1:4" ht="15">
+    <row r="280" spans="1:4">
       <c r="A280" s="21"/>
       <c r="B280" s="11"/>
       <c r="C280" s="11"/>
       <c r="D280" s="11"/>
     </row>
-    <row r="281" spans="1:4" ht="16.05">
-      <c r="B281" s="50"/>
-      <c r="C281" s="51"/>
+    <row r="281" spans="1:4" ht="15.6">
+      <c r="B281" s="49"/>
+      <c r="C281" s="50"/>
       <c r="D281" s="2"/>
     </row>
-    <row r="282" spans="1:4" ht="15">
+    <row r="282" spans="1:4">
       <c r="A282" s="21"/>
       <c r="B282" s="11"/>
       <c r="C282" s="11"/>
       <c r="D282" s="11"/>
     </row>
-    <row r="283" spans="1:4" ht="16.05">
-      <c r="B283" s="50"/>
-      <c r="C283" s="51"/>
+    <row r="283" spans="1:4" ht="15.6">
+      <c r="B283" s="49"/>
+      <c r="C283" s="50"/>
       <c r="D283" s="2"/>
     </row>
-    <row r="284" spans="1:4" ht="15">
+    <row r="284" spans="1:4">
       <c r="A284" s="21"/>
       <c r="B284" s="11"/>
       <c r="C284" s="11"/>
       <c r="D284" s="11"/>
     </row>
-    <row r="285" spans="1:4" ht="16.05">
-      <c r="B285" s="50"/>
-      <c r="C285" s="51"/>
+    <row r="285" spans="1:4" ht="15.6">
+      <c r="B285" s="49"/>
+      <c r="C285" s="50"/>
       <c r="D285" s="2"/>
     </row>
-    <row r="286" spans="1:4" ht="15">
+    <row r="286" spans="1:4">
       <c r="A286" s="21"/>
       <c r="B286" s="11"/>
       <c r="C286" s="11"/>
       <c r="D286" s="11"/>
     </row>
-    <row r="287" spans="1:4" ht="16.05">
-      <c r="B287" s="50"/>
-      <c r="C287" s="51"/>
+    <row r="287" spans="1:4" ht="15.6">
+      <c r="B287" s="49"/>
+      <c r="C287" s="50"/>
       <c r="D287" s="2"/>
     </row>
-    <row r="288" spans="1:4" ht="15">
+    <row r="288" spans="1:4">
       <c r="A288" s="21"/>
       <c r="B288" s="11"/>
       <c r="C288" s="11"/>
       <c r="D288" s="11"/>
     </row>
-    <row r="289" spans="1:4" ht="16.05">
-      <c r="B289" s="50"/>
-      <c r="C289" s="51"/>
+    <row r="289" spans="1:4" ht="15.6">
+      <c r="B289" s="49"/>
+      <c r="C289" s="50"/>
       <c r="D289" s="2"/>
     </row>
-    <row r="290" spans="1:4" ht="15">
+    <row r="290" spans="1:4">
       <c r="A290" s="21"/>
       <c r="B290" s="11"/>
       <c r="C290" s="11"/>
       <c r="D290" s="11"/>
     </row>
-    <row r="291" spans="1:4" ht="16.05">
-      <c r="B291" s="50"/>
-      <c r="C291" s="51"/>
+    <row r="291" spans="1:4" ht="15.6">
+      <c r="B291" s="49"/>
+      <c r="C291" s="50"/>
       <c r="D291" s="2"/>
     </row>
   </sheetData>
@@ -16392,553 +16395,668 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19968ADB-F346-C84F-819E-1C70BDCF73C0}">
-  <dimension ref="A1:K56"/>
+  <dimension ref="A1:AV58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="27" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="1" customWidth="1"/>
     <col min="5" max="16384" width="10.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.6">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:3" ht="15.6">
+      <c r="A1" s="53" t="s">
         <v>1585</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="52" t="s">
         <v>1176</v>
       </c>
-      <c r="C1" s="53" t="s">
-        <v>1178</v>
-      </c>
-      <c r="D1" s="55" t="s">
+      <c r="C1" s="54" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.6">
-      <c r="A2" s="52"/>
-      <c r="B2" s="56" t="s">
+    <row r="2" spans="1:3" ht="15.6">
+      <c r="A2" s="51"/>
+      <c r="B2" s="55" t="s">
         <v>1177</v>
       </c>
-      <c r="C2" s="58" t="s">
-        <v>1179</v>
-      </c>
-      <c r="D2" s="64" t="s">
+      <c r="C2" s="75" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.6">
+      <c r="A3" s="53" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.6">
+      <c r="A4" s="51"/>
+      <c r="B4" s="57" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C4" s="75" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.6">
+      <c r="A5" s="53" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B5" s="52" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.6">
+      <c r="A6" s="51"/>
+      <c r="B6" s="57" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C6" s="75" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.6">
+      <c r="A7" s="53" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.6">
+      <c r="A8" s="51"/>
+      <c r="B8" s="57" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C8" s="75" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.6">
+      <c r="A9" s="53" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B9" s="52" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C9" s="54" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.6">
+      <c r="A10" s="51"/>
+      <c r="B10" s="57" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C10" s="75" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.6">
+      <c r="A11" s="53" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B11" s="52" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C11" s="54" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.6">
+      <c r="A12" s="51"/>
+      <c r="B12" s="57" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C12" s="75" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.6">
+      <c r="A13" s="53" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B13" s="52" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C13" s="54" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="59" customFormat="1" ht="15.6">
+      <c r="A14" s="58"/>
+      <c r="B14" s="57" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C14" s="75" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.6">
+      <c r="A15" s="53" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B15" s="52" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C15" s="54" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="59" customFormat="1" ht="15.6">
+      <c r="A16" s="58"/>
+      <c r="B16" s="50" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C16" s="75" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="17" spans="1:48" ht="15.6">
+      <c r="A17" s="53" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B17" s="52" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C17" s="54" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="18" spans="1:48" s="59" customFormat="1" ht="15.6">
+      <c r="A18" s="58"/>
+      <c r="B18" s="57" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C18" s="75" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="19" spans="1:48" ht="15.6">
+      <c r="A19" s="68" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B19" s="69" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C19" s="54" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="20" spans="1:48" s="59" customFormat="1" ht="15.6">
+      <c r="A20" s="58"/>
+      <c r="B20" s="57" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C20" s="75" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="21" spans="1:48" ht="15.6">
+      <c r="A21" s="68" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B21" s="52" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C21" s="54" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="22" spans="1:48" ht="15.6">
+      <c r="A22" s="70"/>
+      <c r="B22" s="55" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C22" s="75" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="23" spans="1:48" ht="15.6">
+      <c r="A23" s="68" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B23" s="69" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C23" s="54" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="24" spans="1:48" ht="15.6">
+      <c r="A24" s="51"/>
+      <c r="B24" s="1" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C24" s="75" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="25" spans="1:48" ht="15.6">
+      <c r="A25" s="66" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B25" s="52" t="s">
+        <v>374</v>
+      </c>
+      <c r="C25" s="52"/>
+    </row>
+    <row r="26" spans="1:48" ht="15.6">
+      <c r="A26" s="51"/>
+      <c r="B26" s="55" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C26" s="56"/>
+    </row>
+    <row r="27" spans="1:48" ht="15.6">
+      <c r="A27" s="53" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B27" s="52" t="s">
+        <v>374</v>
+      </c>
+      <c r="C27" s="52"/>
+    </row>
+    <row r="28" spans="1:48" ht="15.6">
+      <c r="A28" s="51"/>
+      <c r="B28" s="55" t="s">
+        <v>1596</v>
+      </c>
+      <c r="C28" s="56"/>
+    </row>
+    <row r="29" spans="1:48">
+      <c r="A29" s="21" t="s">
         <v>1600</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.6">
-      <c r="A3" s="54" t="s">
-        <v>1586</v>
-      </c>
-      <c r="B3" s="53" t="s">
-        <v>1176</v>
-      </c>
-      <c r="C3" s="55" t="s">
+      <c r="B29" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>1601</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>1602</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="H29" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="I29" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="Q29"/>
+      <c r="R29"/>
+      <c r="S29"/>
+      <c r="T29"/>
+      <c r="U29"/>
+      <c r="V29"/>
+      <c r="W29"/>
+      <c r="X29"/>
+      <c r="Y29"/>
+      <c r="Z29"/>
+      <c r="AA29"/>
+      <c r="AB29"/>
+      <c r="AC29"/>
+      <c r="AD29"/>
+      <c r="AE29"/>
+      <c r="AF29"/>
+      <c r="AG29"/>
+      <c r="AH29"/>
+      <c r="AI29"/>
+      <c r="AJ29"/>
+      <c r="AK29"/>
+      <c r="AL29"/>
+      <c r="AM29"/>
+      <c r="AN29"/>
+      <c r="AO29"/>
+      <c r="AP29"/>
+      <c r="AQ29"/>
+      <c r="AR29"/>
+      <c r="AS29"/>
+      <c r="AT29"/>
+      <c r="AU29"/>
+      <c r="AV29"/>
+    </row>
+    <row r="30" spans="1:48">
+      <c r="A30"/>
+      <c r="B30" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1604</v>
+      </c>
+      <c r="D30">
+        <v>8879659896</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1605</v>
+      </c>
+      <c r="G30" t="s">
+        <v>1606</v>
+      </c>
+      <c r="H30">
+        <v>431515</v>
+      </c>
+      <c r="I30" t="s">
+        <v>231</v>
+      </c>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
+      <c r="Q30"/>
+      <c r="R30"/>
+      <c r="S30"/>
+      <c r="T30"/>
+      <c r="U30"/>
+      <c r="V30"/>
+      <c r="W30"/>
+      <c r="X30"/>
+      <c r="Y30"/>
+      <c r="Z30"/>
+      <c r="AA30"/>
+      <c r="AB30"/>
+      <c r="AC30"/>
+      <c r="AD30"/>
+      <c r="AE30"/>
+      <c r="AF30"/>
+      <c r="AG30"/>
+      <c r="AH30"/>
+      <c r="AI30"/>
+      <c r="AJ30"/>
+      <c r="AK30"/>
+      <c r="AL30"/>
+      <c r="AM30"/>
+      <c r="AN30"/>
+      <c r="AO30"/>
+      <c r="AP30"/>
+      <c r="AQ30"/>
+      <c r="AR30"/>
+      <c r="AS30"/>
+      <c r="AT30"/>
+      <c r="AU30"/>
+      <c r="AV30"/>
+    </row>
+    <row r="31" spans="1:48" ht="15.6">
+      <c r="A31" s="53"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="52"/>
+    </row>
+    <row r="32" spans="1:48" ht="15.6">
+      <c r="A32" s="51"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="56"/>
+    </row>
+    <row r="33" spans="1:7" s="63" customFormat="1" ht="15.6">
+      <c r="A33" s="61" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B33" s="45" t="s">
+        <v>637</v>
+      </c>
+      <c r="C33" s="62" t="s">
+        <v>396</v>
+      </c>
+      <c r="D33" s="63" t="s">
+        <v>704</v>
+      </c>
+      <c r="E33" s="63" t="s">
+        <v>1607</v>
+      </c>
+      <c r="F33" s="63" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15.6">
+      <c r="A34" s="72"/>
+      <c r="B34" s="46" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C34" s="46" t="s">
+        <v>1609</v>
+      </c>
+      <c r="D34" s="46" t="s">
+        <v>1610</v>
+      </c>
+      <c r="E34" s="46" t="s">
+        <v>1611</v>
+      </c>
+      <c r="F34" s="46" t="s">
+        <v>1612</v>
+      </c>
+      <c r="G34" s="73"/>
+    </row>
+    <row r="35" spans="1:7" ht="15.6">
+      <c r="A35" s="45" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B35" s="62" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.6">
-      <c r="A4" s="52"/>
-      <c r="B4" s="59" t="s">
-        <v>1181</v>
-      </c>
-      <c r="C4" s="64" t="s">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.6">
-      <c r="A5" s="54" t="s">
-        <v>1587</v>
-      </c>
-      <c r="B5" s="53" t="s">
-        <v>1176</v>
-      </c>
-      <c r="C5" s="55" t="s">
+      <c r="C35" s="52"/>
+    </row>
+    <row r="36" spans="1:7" ht="15.6">
+      <c r="A36" s="51"/>
+      <c r="B36" s="47" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C36" s="56"/>
+    </row>
+    <row r="37" spans="1:7" ht="15.6">
+      <c r="A37" s="45" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B37" s="62" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C37" s="62" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.6">
-      <c r="A6" s="52"/>
-      <c r="B6" s="59" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C6" s="64" t="s">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.6">
-      <c r="A7" s="54" t="s">
-        <v>1588</v>
-      </c>
-      <c r="B7" s="53" t="s">
-        <v>1176</v>
-      </c>
-      <c r="C7" s="55" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.6">
-      <c r="A8" s="52"/>
-      <c r="B8" s="59" t="s">
-        <v>1187</v>
-      </c>
-      <c r="C8" s="64" t="s">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15.6">
-      <c r="A9" s="54" t="s">
-        <v>1589</v>
-      </c>
-      <c r="B9" s="53" t="s">
-        <v>1176</v>
-      </c>
-      <c r="C9" s="55" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15.6">
-      <c r="A10" s="52"/>
-      <c r="B10" s="59" t="s">
-        <v>1189</v>
-      </c>
-      <c r="C10" s="64" t="s">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15.6">
-      <c r="A11" s="54" t="s">
-        <v>1590</v>
-      </c>
-      <c r="B11" s="53" t="s">
-        <v>1176</v>
-      </c>
-      <c r="C11" s="55" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15.6">
-      <c r="A12" s="52"/>
-      <c r="B12" s="59" t="s">
-        <v>1190</v>
-      </c>
-      <c r="C12" s="64" t="s">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15.6">
-      <c r="A13" s="54" t="s">
-        <v>1591</v>
-      </c>
-      <c r="B13" s="53" t="s">
-        <v>1176</v>
-      </c>
-      <c r="C13" s="55" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="61" customFormat="1" ht="15.6">
-      <c r="A14" s="60"/>
-      <c r="B14" s="59" t="s">
-        <v>1192</v>
-      </c>
-      <c r="C14" s="64" t="s">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.6">
-      <c r="A15" s="54" t="s">
-        <v>1592</v>
-      </c>
-      <c r="B15" s="53" t="s">
-        <v>1176</v>
-      </c>
-      <c r="C15" s="55" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="61" customFormat="1" ht="15.6">
-      <c r="A16" s="60"/>
-      <c r="B16" s="51" t="s">
-        <v>1195</v>
-      </c>
-      <c r="C16" s="64" t="s">
-        <v>1600</v>
-      </c>
-      <c r="K16" s="61" t="s">
+    <row r="38" spans="1:7" ht="15.6">
+      <c r="A38" s="51"/>
+      <c r="B38" s="64">
+        <v>8623530972</v>
+      </c>
+      <c r="C38" s="65" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15.6">
+      <c r="A39" s="61" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B39" s="62" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C39" s="63" t="s">
+        <v>704</v>
+      </c>
+      <c r="D39" s="63" t="s">
+        <v>396</v>
+      </c>
+      <c r="E39" s="63" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15.6">
+      <c r="A40" s="72"/>
+      <c r="B40" s="46">
+        <v>27490400000302</v>
+      </c>
+      <c r="C40" s="46" t="s">
+        <v>1620</v>
+      </c>
+      <c r="D40" s="46" t="s">
         <v>1611</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="15.6">
-      <c r="A17" s="54" t="s">
-        <v>1593</v>
-      </c>
-      <c r="B17" s="53" t="s">
-        <v>1176</v>
-      </c>
-      <c r="C17" s="55" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="61" customFormat="1" ht="15.6">
-      <c r="A18" s="60"/>
-      <c r="B18" s="59" t="s">
-        <v>1196</v>
-      </c>
-      <c r="C18" s="64" t="s">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15.6">
-      <c r="A19" s="54" t="s">
-        <v>1594</v>
-      </c>
-      <c r="B19" s="53" t="s">
-        <v>1176</v>
-      </c>
-      <c r="C19" s="55" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="61" customFormat="1" ht="15.6">
-      <c r="A20" s="60"/>
-      <c r="B20" s="59" t="s">
-        <v>1184</v>
-      </c>
-      <c r="C20" s="64" t="s">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15.6">
-      <c r="A21" s="54"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="53"/>
-    </row>
-    <row r="22" spans="1:9" ht="15.6">
-      <c r="A22" s="52"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="57"/>
-    </row>
-    <row r="23" spans="1:9" ht="15.6">
-      <c r="A23" s="62" t="s">
-        <v>1595</v>
-      </c>
-      <c r="B23" s="53" t="s">
-        <v>374</v>
-      </c>
-      <c r="C23" s="53"/>
-    </row>
-    <row r="24" spans="1:9" ht="15.6">
-      <c r="A24" s="52"/>
-      <c r="B24" s="56" t="s">
-        <v>1600</v>
-      </c>
-      <c r="C24" s="57"/>
-    </row>
-    <row r="25" spans="1:9" ht="15.6">
-      <c r="A25" s="54" t="s">
-        <v>1597</v>
-      </c>
-      <c r="B25" s="53" t="s">
-        <v>374</v>
-      </c>
-      <c r="C25" s="53"/>
-    </row>
-    <row r="26" spans="1:9" ht="15.6">
-      <c r="A26" s="52"/>
-      <c r="B26" s="56" t="s">
-        <v>1596</v>
-      </c>
-      <c r="C26" s="57"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="3" t="s">
-        <v>1610</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>1601</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>1602</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2" t="s">
-        <v>1604</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>1605</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>1603</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>1606</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>1607</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>1608</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="15.6">
-      <c r="A29" s="54"/>
-      <c r="B29" s="53"/>
-      <c r="C29" s="53"/>
-    </row>
-    <row r="30" spans="1:9" ht="15.6">
-      <c r="A30" s="52"/>
-      <c r="B30" s="56"/>
-      <c r="C30" s="57"/>
-    </row>
-    <row r="31" spans="1:9" ht="16.05">
-      <c r="A31" s="54"/>
-      <c r="B31" s="53"/>
-      <c r="C31" s="53"/>
-    </row>
-    <row r="32" spans="1:9" ht="16.05">
-      <c r="A32" s="52"/>
-      <c r="B32" s="56"/>
-      <c r="C32" s="57"/>
-    </row>
-    <row r="33" spans="1:3" ht="16.05">
-      <c r="A33" s="54"/>
-      <c r="B33" s="53"/>
-      <c r="C33" s="53"/>
-    </row>
-    <row r="34" spans="1:3" ht="16.05">
-      <c r="A34" s="52"/>
-      <c r="B34" s="56"/>
-      <c r="C34" s="57"/>
-    </row>
-    <row r="35" spans="1:3" ht="16.05">
-      <c r="A35" s="54"/>
-      <c r="B35" s="53"/>
-      <c r="C35" s="53"/>
-    </row>
-    <row r="36" spans="1:3" ht="16.05">
-      <c r="A36" s="52"/>
-      <c r="B36" s="56"/>
-      <c r="C36" s="57"/>
-    </row>
-    <row r="37" spans="1:3" ht="16.05">
-      <c r="A37" s="54"/>
-      <c r="B37" s="53"/>
-      <c r="C37" s="53"/>
-    </row>
-    <row r="38" spans="1:3" ht="16.05">
-      <c r="A38" s="52"/>
-      <c r="B38" s="56"/>
-      <c r="C38" s="57"/>
-    </row>
-    <row r="39" spans="1:3" ht="16.05">
-      <c r="A39" s="54"/>
-      <c r="B39" s="53"/>
-      <c r="C39" s="53"/>
-    </row>
-    <row r="40" spans="1:3" ht="16.05">
-      <c r="A40" s="52"/>
-      <c r="B40" s="56"/>
-      <c r="C40" s="57"/>
-    </row>
-    <row r="41" spans="1:3" ht="16.05">
-      <c r="A41" s="54"/>
-      <c r="B41" s="53"/>
-      <c r="C41" s="53"/>
-    </row>
-    <row r="42" spans="1:3" ht="16.05">
-      <c r="A42" s="52"/>
-      <c r="B42" s="56"/>
-      <c r="C42" s="57"/>
-    </row>
-    <row r="43" spans="1:3" ht="16.05">
-      <c r="A43" s="54"/>
-      <c r="B43" s="53"/>
-      <c r="C43" s="53"/>
-    </row>
-    <row r="44" spans="1:3" ht="16.05">
-      <c r="A44" s="52"/>
-      <c r="B44" s="56"/>
-      <c r="C44" s="57"/>
-    </row>
-    <row r="45" spans="1:3" ht="16.05">
-      <c r="A45" s="54"/>
-      <c r="B45" s="53"/>
-      <c r="C45" s="53"/>
-    </row>
-    <row r="46" spans="1:3" ht="16.05">
-      <c r="A46" s="52"/>
-      <c r="B46" s="56"/>
-      <c r="C46" s="57"/>
-    </row>
-    <row r="47" spans="1:3" ht="16.05">
-      <c r="A47" s="54"/>
-      <c r="B47" s="53"/>
-      <c r="C47" s="53"/>
-    </row>
-    <row r="48" spans="1:3" ht="16.05">
-      <c r="A48" s="52"/>
-      <c r="B48" s="56"/>
-      <c r="C48" s="57"/>
-    </row>
-    <row r="49" spans="1:3" ht="16.05">
-      <c r="A49" s="54"/>
-      <c r="B49" s="53"/>
-      <c r="C49" s="53"/>
-    </row>
-    <row r="50" spans="1:3" ht="16.05">
-      <c r="A50" s="52"/>
-      <c r="B50" s="56"/>
-      <c r="C50" s="57"/>
-    </row>
-    <row r="51" spans="1:3" ht="16.05">
-      <c r="A51" s="54"/>
-      <c r="B51" s="53"/>
-      <c r="C51" s="53"/>
-    </row>
-    <row r="52" spans="1:3" ht="16.05">
-      <c r="A52" s="52"/>
-      <c r="B52" s="56"/>
-      <c r="C52" s="57"/>
-    </row>
-    <row r="53" spans="1:3" ht="16.05">
-      <c r="A53" s="54"/>
-      <c r="B53" s="53"/>
-      <c r="C53" s="53"/>
-    </row>
-    <row r="54" spans="1:3" ht="16.05">
-      <c r="A54" s="52"/>
-      <c r="B54" s="56"/>
-      <c r="C54" s="57"/>
-    </row>
-    <row r="55" spans="1:3" ht="16.05">
-      <c r="A55" s="54"/>
-      <c r="B55" s="53"/>
-      <c r="C55" s="53"/>
-    </row>
-    <row r="56" spans="1:3" ht="16.05">
-      <c r="A56" s="52"/>
-      <c r="B56" s="56"/>
-      <c r="C56" s="57"/>
+      <c r="E40" s="46" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15.6">
+      <c r="A41" s="45" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B41" s="67" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C41" s="52"/>
+    </row>
+    <row r="42" spans="1:7" ht="15.6">
+      <c r="A42" s="51"/>
+      <c r="B42" s="65" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C42" s="56"/>
+    </row>
+    <row r="43" spans="1:7" ht="15.6">
+      <c r="A43" s="45" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B43" s="71" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C43" s="52"/>
+    </row>
+    <row r="44" spans="1:7" ht="15.6">
+      <c r="A44" s="51"/>
+      <c r="B44" s="55" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" s="56"/>
+    </row>
+    <row r="45" spans="1:7" ht="15.6">
+      <c r="A45" s="45" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B45" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="C45" s="45" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15.6">
+      <c r="A46" s="51"/>
+      <c r="B46" s="46" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C46" s="74" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15.6">
+      <c r="A47" s="53"/>
+      <c r="B47" s="52"/>
+      <c r="C47" s="52"/>
+    </row>
+    <row r="48" spans="1:7" ht="15.6">
+      <c r="A48" s="51"/>
+      <c r="B48" s="55"/>
+      <c r="C48" s="56"/>
+    </row>
+    <row r="49" spans="1:3" ht="15.6">
+      <c r="A49" s="53"/>
+      <c r="B49" s="52"/>
+      <c r="C49" s="52"/>
+    </row>
+    <row r="50" spans="1:3" ht="15.6">
+      <c r="A50" s="51"/>
+      <c r="B50" s="55"/>
+      <c r="C50" s="56"/>
+    </row>
+    <row r="51" spans="1:3" ht="15.6">
+      <c r="A51" s="53"/>
+      <c r="B51" s="52"/>
+      <c r="C51" s="52"/>
+    </row>
+    <row r="52" spans="1:3" ht="15.6">
+      <c r="A52" s="51"/>
+      <c r="B52" s="55"/>
+      <c r="C52" s="56"/>
+    </row>
+    <row r="53" spans="1:3" ht="15.6">
+      <c r="A53" s="53"/>
+      <c r="B53" s="52"/>
+      <c r="C53" s="52"/>
+    </row>
+    <row r="54" spans="1:3" ht="15.6">
+      <c r="A54" s="51"/>
+      <c r="B54" s="55"/>
+      <c r="C54" s="56"/>
+    </row>
+    <row r="55" spans="1:3" ht="15.6">
+      <c r="A55" s="53"/>
+      <c r="B55" s="52"/>
+      <c r="C55" s="52"/>
+    </row>
+    <row r="56" spans="1:3" ht="15.6">
+      <c r="A56" s="51"/>
+      <c r="B56" s="55"/>
+      <c r="C56" s="56"/>
+    </row>
+    <row r="57" spans="1:3" ht="15.6">
+      <c r="A57" s="53"/>
+      <c r="B57" s="52"/>
+      <c r="C57" s="52"/>
+    </row>
+    <row r="58" spans="1:3" ht="15.6">
+      <c r="A58" s="51"/>
+      <c r="B58" s="55"/>
+      <c r="C58" s="56"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="23" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C46" r:id="rId1" xr:uid="{25654D64-5B26-8A4B-8CCC-489F40DA5A21}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE45D5C-BC06-EA4D-B7FA-EE3F4A0A43C9}">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="30.33203125" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="9" max="9" width="13.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1">
-      <c r="A1" s="3" t="s">
-        <v>1609</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>1601</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>1602</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="2" customFormat="1">
-      <c r="B2" s="2" t="s">
-        <v>1604</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1605</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>1603</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>1606</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>1607</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>1608</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C575"/>
   <sheetViews>
@@ -22227,7 +22345,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="554" spans="1:3" ht="15">
+    <row r="554" spans="1:3">
       <c r="A554" s="21" t="s">
         <v>1036</v>
       </c>
@@ -22238,7 +22356,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="555" spans="1:3" ht="15">
+    <row r="555" spans="1:3">
       <c r="B555" t="s">
         <v>1499</v>
       </c>
@@ -22246,7 +22364,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="556" spans="1:3" ht="15">
+    <row r="556" spans="1:3">
       <c r="A556" s="21" t="s">
         <v>1496</v>
       </c>
@@ -22257,7 +22375,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="557" spans="1:3" ht="15">
+    <row r="557" spans="1:3">
       <c r="B557" t="s">
         <v>1500</v>
       </c>
@@ -22265,7 +22383,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="558" spans="1:3" ht="15">
+    <row r="558" spans="1:3">
       <c r="A558" s="21" t="s">
         <v>1418</v>
       </c>
@@ -22276,7 +22394,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="559" spans="1:3" ht="15">
+    <row r="559" spans="1:3">
       <c r="B559" t="s">
         <v>1501</v>
       </c>
@@ -22284,7 +22402,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="560" spans="1:3" ht="15">
+    <row r="560" spans="1:3">
       <c r="A560" s="21" t="s">
         <v>1420</v>
       </c>
@@ -22295,7 +22413,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="561" spans="1:3" ht="15">
+    <row r="561" spans="1:3">
       <c r="B561" t="s">
         <v>1502</v>
       </c>
@@ -22303,7 +22421,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="562" spans="1:3" ht="15">
+    <row r="562" spans="1:3">
       <c r="A562" s="21" t="s">
         <v>1422</v>
       </c>
@@ -22314,7 +22432,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="563" spans="1:3" ht="15">
+    <row r="563" spans="1:3">
       <c r="B563" t="s">
         <v>1503</v>
       </c>
@@ -22322,7 +22440,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="564" spans="1:3" ht="15">
+    <row r="564" spans="1:3">
       <c r="A564" s="21" t="s">
         <v>1423</v>
       </c>
@@ -22333,7 +22451,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="565" spans="1:3" ht="16.05">
+    <row r="565" spans="1:3">
       <c r="B565" s="26" t="s">
         <v>1504</v>
       </c>
@@ -22341,7 +22459,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="566" spans="1:3" ht="15">
+    <row r="566" spans="1:3">
       <c r="A566" s="21" t="s">
         <v>1506</v>
       </c>
@@ -22352,7 +22470,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="567" spans="1:3" ht="16.05">
+    <row r="567" spans="1:3">
       <c r="B567" s="26" t="s">
         <v>1507</v>
       </c>
@@ -22360,7 +22478,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="568" spans="1:3" ht="15">
+    <row r="568" spans="1:3">
       <c r="A568" s="21" t="s">
         <v>1508</v>
       </c>
@@ -22371,7 +22489,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="569" spans="1:3" ht="16.05">
+    <row r="569" spans="1:3">
       <c r="B569" s="26" t="s">
         <v>1512</v>
       </c>
@@ -22379,7 +22497,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="570" spans="1:3" ht="15">
+    <row r="570" spans="1:3">
       <c r="A570" s="21" t="s">
         <v>1509</v>
       </c>
@@ -22390,7 +22508,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="571" spans="1:3" ht="16.05">
+    <row r="571" spans="1:3">
       <c r="B571" s="26" t="s">
         <v>1513</v>
       </c>
@@ -22398,7 +22516,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="572" spans="1:3" ht="15">
+    <row r="572" spans="1:3">
       <c r="A572" s="21" t="s">
         <v>1510</v>
       </c>
@@ -22409,7 +22527,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="573" spans="1:3" ht="16.05">
+    <row r="573" spans="1:3">
       <c r="B573" s="26" t="s">
         <v>1514</v>
       </c>
@@ -22417,7 +22535,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="574" spans="1:3" ht="15">
+    <row r="574" spans="1:3">
       <c r="A574" s="21" t="s">
         <v>1511</v>
       </c>
@@ -22428,7 +22546,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="575" spans="1:3" ht="16.05">
+    <row r="575" spans="1:3">
       <c r="B575" s="26" t="s">
         <v>1515</v>
       </c>
@@ -22442,7 +22560,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B18"/>
   <sheetViews>
@@ -22606,7 +22724,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
